--- a/Assignment2Results.xlsx
+++ b/Assignment2Results.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajidkhan/Desktop/ML/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajidkhan/Desktop/ML/Assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6B36F464-919F-7C48-85FE-929F65B4A857}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{03FAC7FA-C9C8-B348-8D5A-63239CC82C16}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="460" windowWidth="17280" windowHeight="16120" xr2:uid="{A4153FB4-58E5-CC4E-975F-A3FEDF3DBED8}"/>
+    <workbookView xWindow="11520" yWindow="460" windowWidth="17280" windowHeight="16120" activeTab="2" xr2:uid="{A4153FB4-58E5-CC4E-975F-A3FEDF3DBED8}"/>
   </bookViews>
   <sheets>
     <sheet name="nnScriptResults" sheetId="1" r:id="rId1"/>
     <sheet name="facennScriptResults" sheetId="2" r:id="rId2"/>
+    <sheet name="cnnScriptResults" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Lambda</t>
   </si>
@@ -44,6 +45,15 @@
   </si>
   <si>
     <t>Time taken(in sec)</t>
+  </si>
+  <si>
+    <t>Optimization Iteration</t>
+  </si>
+  <si>
+    <t>Test set Accuracy (in percent)</t>
+  </si>
+  <si>
+    <t>Time usage (in sec)</t>
   </si>
 </sst>
 </file>
@@ -406,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBDCE85-794A-4E47-964B-E716D2B831F3}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1885,4 +1895,89 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68D3F1F-ADC1-0940-BC27-A60509812752}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6.9</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>65.2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>92.4</v>
+      </c>
+      <c r="C5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10000</v>
+      </c>
+      <c r="B6">
+        <v>98.8</v>
+      </c>
+      <c r="C6">
+        <v>465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assignment2Results.xlsx
+++ b/Assignment2Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajidkhan/Desktop/ML/Assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{03FAC7FA-C9C8-B348-8D5A-63239CC82C16}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E29BE751-571A-124E-B025-782EE44FADB4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="460" windowWidth="17280" windowHeight="16120" activeTab="2" xr2:uid="{A4153FB4-58E5-CC4E-975F-A3FEDF3DBED8}"/>
   </bookViews>
@@ -1902,7 +1902,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.9</v>
+        <v>10.1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.1999999999999993</v>
+        <v>10.9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>100</v>
       </c>
       <c r="B4">
-        <v>65.2</v>
+        <v>69.8</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1960,10 +1960,10 @@
         <v>1000</v>
       </c>
       <c r="B5">
-        <v>92.4</v>
+        <v>93.2</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1971,10 +1971,10 @@
         <v>10000</v>
       </c>
       <c r="B6">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="C6">
-        <v>465</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
